--- a/public/file/裝備清單範例.xlsx
+++ b/public/file/裝備清單範例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Johlmike/Documents/epic7gear/public/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D745E52-4023-0244-BEB5-94FAB6A2C88A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698276B-B36D-2B4F-AD13-E886F4354679}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="15940" xr2:uid="{3B7F3B5F-B098-A44C-923A-167937F969FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>部位</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>生命</t>
+  </si>
+  <si>
+    <t>防禦</t>
+  </si>
+  <si>
+    <t>攻擊</t>
   </si>
 </sst>
 </file>
@@ -475,7 +481,7 @@
   <dimension ref="A1:M600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -526,7 +532,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>515</v>
@@ -555,7 +561,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>515</v>
@@ -613,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -9569,7 +9575,7 @@
       <formula1>"武器,頭盔,盔甲,項鍊,戒指,鞋子"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B600" xr:uid="{35E2441C-311D-5546-A39F-49DB30BCED4B}">
-      <formula1>"攻擊,防禦,生命,暴擊,破滅,命中,抵抗,吸血,反擊,夾攻,免疫,憤怒"</formula1>
+      <formula1>"攻擊,防禦,生命,速度,暴擊,破滅,命中,抵抗,吸血,反擊,夾攻,免疫,憤怒"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
